--- a/13_Car_ahead_departure_detection/Car_ahead_departure_detection_cam/exe/tiny_yolov3_cam/tiny_yolov3_cam_summary.xlsx
+++ b/13_Car_ahead_departure_detection/Car_ahead_departure_detection_cam/exe/tiny_yolov3_cam/tiny_yolov3_cam_summary.xlsx
@@ -834,7 +834,7 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>31140</v>
+        <v>28819</v>
       </c>
     </row>
     <row r="33">
